--- a/test-data/Quote_Test.xlsx
+++ b/test-data/Quote_Test.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,6 +427,18 @@
       <c r="H1" t="str">
         <v>OTC</v>
       </c>
+      <c r="I1" t="str">
+        <v>Invoice start date</v>
+      </c>
+      <c r="J1" t="str">
+        <v>first_Price_increment_applicable_after</v>
+      </c>
+      <c r="K1" t="str">
+        <v>renewal term</v>
+      </c>
+      <c r="L1" t="str">
+        <v>price_increase_percentage</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -453,6 +465,18 @@
       <c r="H2" t="str">
         <v/>
       </c>
+      <c r="I2" t="str">
+        <v>2024-01-01</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -479,6 +503,18 @@
       <c r="H3">
         <v>100</v>
       </c>
+      <c r="I3" t="str">
+        <v>2024-03-15</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>24</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -505,6 +541,18 @@
       <c r="H4" t="str">
         <v/>
       </c>
+      <c r="I4" t="str">
+        <v>2024-06-01</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -531,6 +579,18 @@
       <c r="H5">
         <v>100</v>
       </c>
+      <c r="I5" t="str">
+        <v>2024-09-01</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>24</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -557,6 +617,18 @@
       <c r="H6" t="str">
         <v/>
       </c>
+      <c r="I6" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -583,6 +655,18 @@
       <c r="H7">
         <v>100</v>
       </c>
+      <c r="I7" t="str">
+        <v>2025-04-01</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>24</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -609,6 +693,18 @@
       <c r="H8" t="str">
         <v/>
       </c>
+      <c r="I8" t="str">
+        <v>2025-07-01</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -635,6 +731,18 @@
       <c r="H9">
         <v>100</v>
       </c>
+      <c r="I9" t="str">
+        <v>2025-10-01</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>24</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -661,6 +769,18 @@
       <c r="H10" t="str">
         <v/>
       </c>
+      <c r="I10" t="str">
+        <v>2024-01-01</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -687,6 +807,18 @@
       <c r="H11">
         <v>100</v>
       </c>
+      <c r="I11" t="str">
+        <v>2024-03-15</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>24</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -713,6 +845,18 @@
       <c r="H12" t="str">
         <v/>
       </c>
+      <c r="I12" t="str">
+        <v>2024-06-01</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>12</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -739,6 +883,18 @@
       <c r="H13">
         <v>100</v>
       </c>
+      <c r="I13" t="str">
+        <v>2024-09-01</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>24</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -765,6 +921,18 @@
       <c r="H14" t="str">
         <v/>
       </c>
+      <c r="I14" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -791,6 +959,18 @@
       <c r="H15">
         <v>100</v>
       </c>
+      <c r="I15" t="str">
+        <v>2025-04-01</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>24</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -817,6 +997,18 @@
       <c r="H16" t="str">
         <v/>
       </c>
+      <c r="I16" t="str">
+        <v>2025-07-01</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -843,6 +1035,18 @@
       <c r="H17">
         <v>100</v>
       </c>
+      <c r="I17" t="str">
+        <v>2025-10-01</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>24</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -869,6 +1073,18 @@
       <c r="H18" t="str">
         <v/>
       </c>
+      <c r="I18" t="str">
+        <v>2024-01-01</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>12</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -895,6 +1111,18 @@
       <c r="H19">
         <v>100</v>
       </c>
+      <c r="I19" t="str">
+        <v>2024-03-15</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>24</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -921,6 +1149,18 @@
       <c r="H20" t="str">
         <v/>
       </c>
+      <c r="I20" t="str">
+        <v>2024-06-01</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>12</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -947,6 +1187,18 @@
       <c r="H21">
         <v>100</v>
       </c>
+      <c r="I21" t="str">
+        <v>2024-09-01</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>24</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -973,6 +1225,18 @@
       <c r="H22" t="str">
         <v/>
       </c>
+      <c r="I22" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>12</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -999,6 +1263,18 @@
       <c r="H23">
         <v>100</v>
       </c>
+      <c r="I23" t="str">
+        <v>2025-04-01</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>24</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -1025,6 +1301,18 @@
       <c r="H24" t="str">
         <v/>
       </c>
+      <c r="I24" t="str">
+        <v>2025-07-01</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
+      <c r="K24">
+        <v>12</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -1051,6 +1339,18 @@
       <c r="H25">
         <v>100</v>
       </c>
+      <c r="I25" t="str">
+        <v>2025-10-01</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>24</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -1077,6 +1377,18 @@
       <c r="H26" t="str">
         <v/>
       </c>
+      <c r="I26" t="str">
+        <v>2024-01-01</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>12</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -1103,6 +1415,18 @@
       <c r="H27">
         <v>100</v>
       </c>
+      <c r="I27" t="str">
+        <v>2024-03-15</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>24</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -1129,6 +1453,18 @@
       <c r="H28" t="str">
         <v/>
       </c>
+      <c r="I28" t="str">
+        <v>2024-06-01</v>
+      </c>
+      <c r="J28">
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <v>12</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -1155,6 +1491,18 @@
       <c r="H29">
         <v>100</v>
       </c>
+      <c r="I29" t="str">
+        <v>2024-09-01</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>24</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -1181,6 +1529,18 @@
       <c r="H30" t="str">
         <v/>
       </c>
+      <c r="I30" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>12</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -1207,6 +1567,18 @@
       <c r="H31">
         <v>100</v>
       </c>
+      <c r="I31" t="str">
+        <v>2025-04-01</v>
+      </c>
+      <c r="J31">
+        <v>7</v>
+      </c>
+      <c r="K31">
+        <v>24</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -1233,6 +1605,18 @@
       <c r="H32" t="str">
         <v/>
       </c>
+      <c r="I32" t="str">
+        <v>2025-07-01</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>12</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -1259,6 +1643,18 @@
       <c r="H33">
         <v>100</v>
       </c>
+      <c r="I33" t="str">
+        <v>2025-10-01</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <v>24</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -1285,6 +1681,18 @@
       <c r="H34" t="str">
         <v/>
       </c>
+      <c r="I34" t="str">
+        <v>2024-01-01</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <v>12</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -1311,6 +1719,18 @@
       <c r="H35">
         <v>100</v>
       </c>
+      <c r="I35" t="str">
+        <v>2024-03-15</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>24</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -1337,6 +1757,18 @@
       <c r="H36" t="str">
         <v/>
       </c>
+      <c r="I36" t="str">
+        <v>2024-06-01</v>
+      </c>
+      <c r="J36">
+        <v>6</v>
+      </c>
+      <c r="K36">
+        <v>12</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -1363,6 +1795,18 @@
       <c r="H37">
         <v>100</v>
       </c>
+      <c r="I37" t="str">
+        <v>2024-09-01</v>
+      </c>
+      <c r="J37">
+        <v>7</v>
+      </c>
+      <c r="K37">
+        <v>24</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -1389,6 +1833,18 @@
       <c r="H38" t="str">
         <v/>
       </c>
+      <c r="I38" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>12</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -1415,6 +1871,18 @@
       <c r="H39">
         <v>100</v>
       </c>
+      <c r="I39" t="str">
+        <v>2025-04-01</v>
+      </c>
+      <c r="J39">
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <v>24</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -1441,6 +1909,18 @@
       <c r="H40" t="str">
         <v/>
       </c>
+      <c r="I40" t="str">
+        <v>2025-07-01</v>
+      </c>
+      <c r="J40">
+        <v>7</v>
+      </c>
+      <c r="K40">
+        <v>12</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -1467,6 +1947,18 @@
       <c r="H41">
         <v>100</v>
       </c>
+      <c r="I41" t="str">
+        <v>2025-10-01</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <v>24</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -1493,6 +1985,18 @@
       <c r="H42" t="str">
         <v/>
       </c>
+      <c r="I42" t="str">
+        <v>2024-01-01</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>12</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -1519,6 +2023,18 @@
       <c r="H43">
         <v>100</v>
       </c>
+      <c r="I43" t="str">
+        <v>2024-03-15</v>
+      </c>
+      <c r="J43">
+        <v>7</v>
+      </c>
+      <c r="K43">
+        <v>24</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -1545,6 +2061,18 @@
       <c r="H44" t="str">
         <v/>
       </c>
+      <c r="I44" t="str">
+        <v>2024-06-01</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>12</v>
+      </c>
+      <c r="L44">
+        <v>4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -1571,6 +2099,18 @@
       <c r="H45">
         <v>100</v>
       </c>
+      <c r="I45" t="str">
+        <v>2024-09-01</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>24</v>
+      </c>
+      <c r="L45">
+        <v>5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -1597,6 +2137,18 @@
       <c r="H46" t="str">
         <v/>
       </c>
+      <c r="I46" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="J46">
+        <v>7</v>
+      </c>
+      <c r="K46">
+        <v>12</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -1623,6 +2175,18 @@
       <c r="H47">
         <v>100</v>
       </c>
+      <c r="I47" t="str">
+        <v>2025-04-01</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>24</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -1649,6 +2213,18 @@
       <c r="H48" t="str">
         <v/>
       </c>
+      <c r="I48" t="str">
+        <v>2025-07-01</v>
+      </c>
+      <c r="J48">
+        <v>6</v>
+      </c>
+      <c r="K48">
+        <v>12</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -1675,6 +2251,18 @@
       <c r="H49">
         <v>100</v>
       </c>
+      <c r="I49" t="str">
+        <v>2025-10-01</v>
+      </c>
+      <c r="J49">
+        <v>7</v>
+      </c>
+      <c r="K49">
+        <v>24</v>
+      </c>
+      <c r="L49">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -1701,6 +2289,18 @@
       <c r="H50" t="str">
         <v/>
       </c>
+      <c r="I50" t="str">
+        <v>2024-01-01</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>12</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -1727,6 +2327,18 @@
       <c r="H51">
         <v>100</v>
       </c>
+      <c r="I51" t="str">
+        <v>2024-03-15</v>
+      </c>
+      <c r="J51">
+        <v>6</v>
+      </c>
+      <c r="K51">
+        <v>24</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -1753,6 +2365,18 @@
       <c r="H52" t="str">
         <v/>
       </c>
+      <c r="I52" t="str">
+        <v>2024-06-01</v>
+      </c>
+      <c r="J52">
+        <v>7</v>
+      </c>
+      <c r="K52">
+        <v>12</v>
+      </c>
+      <c r="L52">
+        <v>4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -1779,6 +2403,18 @@
       <c r="H53">
         <v>100</v>
       </c>
+      <c r="I53" t="str">
+        <v>2024-09-01</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>24</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -1805,6 +2441,18 @@
       <c r="H54" t="str">
         <v/>
       </c>
+      <c r="I54" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
+      </c>
+      <c r="K54">
+        <v>12</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -1831,6 +2479,18 @@
       <c r="H55">
         <v>100</v>
       </c>
+      <c r="I55" t="str">
+        <v>2025-04-01</v>
+      </c>
+      <c r="J55">
+        <v>7</v>
+      </c>
+      <c r="K55">
+        <v>24</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -1857,10 +2517,22 @@
       <c r="H56" t="str">
         <v/>
       </c>
+      <c r="I56" t="str">
+        <v>2025-07-01</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>12</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H56"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L56"/>
   </ignoredErrors>
 </worksheet>
 </file>